--- a/HW4/Data_set_2.xlsx
+++ b/HW4/Data_set_2.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidg0\Documents\github\ESM260\HW4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GIT\ESM260\HW4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D240CDD-D66E-46C4-9BF4-85354B8BF5F6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Climate change" sheetId="17" r:id="rId1"/>
@@ -199,7 +198,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -719,7 +718,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -785,7 +784,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1105,7 +1104,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1149,7 +1148,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1170,11 +1169,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -1556,7 +1555,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1579,7 +1578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1602,7 +1601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1625,7 +1624,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1648,7 +1647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1671,11 +1670,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2424,10 +2423,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView zoomScale="84" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
       <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
@@ -3460,7 +3459,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3483,7 +3482,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3506,7 +3505,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3529,7 +3528,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3552,7 +3551,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3575,7 +3574,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
